--- a/src/test/resources/testData/QAopenCartTestData.xlsx
+++ b/src/test/resources/testData/QAopenCartTestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\naveens\SelOpenCartPractise\src\test\resources\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3282734-2F8B-4D9A-AE38-A566854A205D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28263702-A53F-4AD0-BB9E-75719B5D9857}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10540" xr2:uid="{B7A9D1AA-D4D0-4F22-9549-24F180A9205D}"/>
   </bookViews>
@@ -84,13 +84,13 @@
     <t>harithaQA</t>
   </si>
   <si>
-    <t>autoQA01manickam.6789@gmail.com</t>
-  </si>
-  <si>
-    <t>autoQA01monika.6789@gmail.com</t>
-  </si>
-  <si>
-    <t>autoQA01haritha.67889@gmail.com</t>
+    <t>autoQA09manickam.601@gmail.com</t>
+  </si>
+  <si>
+    <t>autoQA09monika.601@gmail.com</t>
+  </si>
+  <si>
+    <t>autoQA09haritha.601@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -464,7 +464,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/src/test/resources/testData/QAopenCartTestData.xlsx
+++ b/src/test/resources/testData/QAopenCartTestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\naveens\SelOpenCartPractise\src\test\resources\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28263702-A53F-4AD0-BB9E-75719B5D9857}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE6F0B13-8AEF-44CA-9C33-70AA3D2E0A33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10540" xr2:uid="{B7A9D1AA-D4D0-4F22-9549-24F180A9205D}"/>
   </bookViews>
@@ -84,13 +84,13 @@
     <t>harithaQA</t>
   </si>
   <si>
-    <t>autoQA09manickam.601@gmail.com</t>
-  </si>
-  <si>
-    <t>autoQA09monika.601@gmail.com</t>
-  </si>
-  <si>
-    <t>autoQA09haritha.601@gmail.com</t>
+    <t>autoQA09manickam.01@gmail.com</t>
+  </si>
+  <si>
+    <t>autoQA09monika.01@gmail.com</t>
+  </si>
+  <si>
+    <t>autoQA09haritha.01@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -464,7 +464,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
